--- a/APF/RA006/RA006_APF0506_功能執行細項紀錄.xlsx
+++ b/APF/RA006/RA006_APF0506_功能執行細項紀錄.xlsx
@@ -1,38 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Suda3g\APF\RA006\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="990" yWindow="5685" windowWidth="12855" windowHeight="8430" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="588" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
     <sheet name="IPO" sheetId="34" r:id="rId4"/>
-    <sheet name="畫面_APF0001MM1" sheetId="7" r:id="rId5"/>
-    <sheet name="欄位_APF0001MM1" sheetId="14" r:id="rId6"/>
+    <sheet name="畫面_APF0506_ActionLog" sheetId="7" r:id="rId5"/>
+    <sheet name="欄位_APF0506_ActionLog" sheetId="14" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">版本控管!$A$1:$D$13</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0001MM1!$A$1:$J$64</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0001MM1!$A$1:$J$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">畫面_APF0506_ActionLog!$A$1:$J$64</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">欄位_APF0506_ActionLog!$A$1:$J$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">版本控管!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0001MM1!$1:$5</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0001MM1!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">畫面_APF0506_ActionLog!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">欄位_APF0506_ActionLog!$1:$5</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0001MM1!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="4" hidden="1">畫面_APF0506_ActionLog!#REF!</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -123,10 +128,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>_CLICK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>修改說明</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -246,10 +247,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>『登出』</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>其他</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -319,14 +316,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>1.系統以確認訊息視窗，提示訊息內容請參考APF訊息表-APF_NO 7。
-2.若選擇是
-  2.1清除APF Session、呼叫SSO Logout Function，使SSO token狀態改為失效。
-  2.2導回SSO登入頁(APF0002MM1)。
-3.若選擇否，則不做任何動作。</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>回總表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -362,24 +351,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>click_log</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>輸入/輸出/必填</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>必填</t>
-  </si>
-  <si>
-    <t>自動</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -415,10 +390,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>紀錄各User於APF模組中各項執行功能輸入的條件與設定的資訊</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>系統管理模組</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -483,9 +454,6 @@
     <t>log_type</t>
   </si>
   <si>
-    <t>create_time</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -507,6 +475,49 @@
   <si>
     <t>nvarchar(MAX)</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紀錄各使用者於APF模組中各項執行功能輸入的條件與設定的資訊</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>功能執行細項紀錄</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_action_log</t>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK、流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0506_ActionLog</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0506_ActionLog</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,7 +527,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -665,19 +676,6 @@
       <name val="標楷體"/>
       <family val="4"/>
       <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -990,7 +988,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
@@ -1006,10 +1004,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,7 +1012,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1193,9 +1188,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1211,12 +1203,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1226,21 +1242,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1256,21 +1257,81 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1333,108 +1394,23 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="9" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="9">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2"/>
     <cellStyle name="一般 2 2" xfId="5"/>
-    <cellStyle name="一般 2 3" xfId="9"/>
+    <cellStyle name="一般 2 3" xfId="8"/>
     <cellStyle name="一般 3" xfId="4"/>
-    <cellStyle name="一般 4" xfId="8"/>
-    <cellStyle name="一般_12312" xfId="6"/>
+    <cellStyle name="一般 4" xfId="7"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
-    <cellStyle name="超連結 2" xfId="7"/>
+    <cellStyle name="超連結 2" xfId="6"/>
     <cellStyle name="標準_Ⅱ011" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1442,6 +1418,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2472,8 +2451,8 @@
         <xdr:to>
           <xdr:col>11</xdr:col>
           <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>56</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2486,7 +2465,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2494,6 +2473,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2507,14 +2497,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>57</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>67</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:row>35</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2527,7 +2517,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2535,6 +2525,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2573,7 +2574,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2581,6 +2582,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3670,7 +3682,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3678,6 +3690,17 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -4589,7 +4612,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4602,97 +4625,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="65" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
-      <c r="A4" s="64" t="s">
-        <v>76</v>
+      <c r="A4" s="63" t="s">
+        <v>69</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="66"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="135" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="66"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="6" t="s">
+        <v>109</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="135" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -4741,6 +4774,9 @@
   <hyperlinks>
     <hyperlink ref="D3" location="功能簡述!A1" display="View"/>
     <hyperlink ref="D4" location="IPO!A1" display="View"/>
+    <hyperlink ref="D5:D6" location="IPO!A1" display="View"/>
+    <hyperlink ref="D5" location="畫面_APF0506_ActionLog!A1" display="View"/>
+    <hyperlink ref="D6" location="欄位_APF0506_ActionLog!A1" display="View"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
@@ -4769,8 +4805,8 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="67" t="s">
-        <v>54</v>
+      <c r="E1" s="66" t="s">
+        <v>52</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -4792,7 +4828,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="68"/>
+      <c r="E2" s="67"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -4806,7 +4842,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="68"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -4834,13 +4870,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="13"/>
@@ -4856,10 +4892,10 @@
         <v>1</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D6" s="28">
         <v>41571</v>
@@ -4997,10 +5033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M57"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5013,15 +5049,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="67" t="s">
-        <v>54</v>
+      <c r="M1" s="66" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="68"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="68"/>
+      <c r="M3" s="67"/>
     </row>
     <row r="4" spans="1:13" s="61" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="62"/>
@@ -5038,219 +5074,214 @@
       <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="85"/>
+    </row>
+    <row r="6" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A6" s="68" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="69"/>
+      <c r="L6" s="70"/>
+    </row>
+    <row r="7" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83"/>
-    </row>
-    <row r="6" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="84" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-    </row>
-    <row r="7" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="81" t="s">
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="77"/>
+    </row>
+    <row r="8" spans="1:13" s="40" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="74"/>
+    </row>
+    <row r="9" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="76"/>
-    </row>
-    <row r="8" spans="1:13" s="40" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-    </row>
-    <row r="9" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="79" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81" t="s">
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="77"/>
+    </row>
+    <row r="10" spans="1:13" s="40" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="74"/>
+    </row>
+    <row r="11" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
-    </row>
-    <row r="10" spans="1:13" s="40" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-    </row>
-    <row r="11" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="72" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74" t="s">
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="77"/>
+    </row>
+    <row r="12" spans="1:13" s="40" customFormat="1">
+      <c r="A12" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="72"/>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
+    </row>
+    <row r="13" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
-    </row>
-    <row r="12" spans="1:13" s="40" customFormat="1">
-      <c r="A12" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
-    </row>
-    <row r="13" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="75" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:13" s="40" customFormat="1">
-      <c r="A14" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
+      <c r="A14" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="A57" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="B57" s="69"/>
-      <c r="C57" s="69"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="69"/>
-      <c r="K57" s="69"/>
-      <c r="L57" s="70"/>
+      <c r="A15" s="78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="78" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A57:L57"/>
+    <mergeCell ref="A25:L25"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5264,6 +5295,11 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -5278,7 +5314,7 @@
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject progId="Word.Document.12" shapeId="1025" r:id="rId4">
-          <objectPr defaultSize="0" r:id="rId5">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
@@ -5287,10 +5323,10 @@
                 <xdr:rowOff>19050</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5308,14 +5344,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5340,15 +5376,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="87" t="s">
-        <v>60</v>
+      <c r="P1" s="86" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="88"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="88"/>
+      <c r="P3" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5399,7 +5435,7 @@
   <dimension ref="A1:Q65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5428,8 +5464,8 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="67" t="s">
-        <v>54</v>
+      <c r="K1" s="66" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
@@ -5449,7 +5485,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="68"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:17" s="37" customFormat="1">
       <c r="A3" s="21"/>
@@ -5462,7 +5498,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="68"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:17" s="37" customFormat="1">
       <c r="A4" s="21"/>
@@ -5477,94 +5513,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="37" customFormat="1">
-      <c r="A5" s="96" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="A5" s="118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
     </row>
     <row r="7" spans="1:17" s="38" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="127"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="127"/>
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="130"/>
     </row>
     <row r="10" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="96" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
+      <c r="A10" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
     </row>
     <row r="11" spans="1:17" s="40" customFormat="1">
-      <c r="A11" s="109"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="74"/>
     </row>
     <row r="12" spans="1:17" s="40" customFormat="1">
       <c r="A12" s="58"/>
@@ -5879,216 +5915,216 @@
       <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="96" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="76"/>
+      <c r="A38" s="118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
+      <c r="E38" s="76"/>
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="I38" s="76"/>
+      <c r="J38" s="77"/>
     </row>
     <row r="39" spans="1:10" s="40" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="109"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70"/>
+      <c r="A39" s="131"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="I39" s="73"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="77"/>
     </row>
     <row r="41" spans="1:10" s="40" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="70"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="I41" s="73"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="76"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="77"/>
     </row>
     <row r="43" spans="1:10" s="38" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="119" t="s">
-        <v>52</v>
-      </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="121"/>
+      <c r="A43" s="97" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
+      <c r="F43" s="98"/>
+      <c r="G43" s="98"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="99"/>
     </row>
     <row r="44" spans="1:10" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="112"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="95"/>
+      <c r="J44" s="96"/>
     </row>
     <row r="45" spans="1:10" s="38" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="90"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="92"/>
+      <c r="A45" s="112"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="113"/>
+      <c r="D45" s="113"/>
+      <c r="E45" s="113"/>
+      <c r="F45" s="113"/>
+      <c r="G45" s="113"/>
+      <c r="H45" s="113"/>
+      <c r="I45" s="113"/>
+      <c r="J45" s="114"/>
     </row>
     <row r="46" spans="1:10" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B46" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="95"/>
+      <c r="D46" s="116"/>
+      <c r="E46" s="116"/>
+      <c r="F46" s="116"/>
+      <c r="G46" s="116"/>
+      <c r="H46" s="116"/>
+      <c r="I46" s="116"/>
+      <c r="J46" s="117"/>
     </row>
     <row r="47" spans="1:10" s="38" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="124"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
+      <c r="J47" s="102"/>
     </row>
     <row r="48" spans="1:10" s="38" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="124"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="102"/>
     </row>
     <row r="49" spans="1:12" s="38" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="124"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="101"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
+      <c r="J49" s="102"/>
     </row>
     <row r="50" spans="1:12" s="38" customFormat="1">
-      <c r="A50" s="119"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="126"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="103"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="103"/>
+      <c r="F50" s="103"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="103"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="104"/>
     </row>
     <row r="51" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="110" t="s">
-        <v>31</v>
-      </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="A51" s="94" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" s="95"/>
+      <c r="C51" s="95"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="95"/>
+      <c r="F51" s="95"/>
+      <c r="G51" s="95"/>
+      <c r="H51" s="95"/>
+      <c r="I51" s="95"/>
+      <c r="J51" s="96"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="C52" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="D52" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="E52" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="131" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="93"/>
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
     </row>
@@ -6099,140 +6135,132 @@
       <c r="B53" s="45"/>
       <c r="C53" s="46"/>
       <c r="D53" s="47"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
+      <c r="E53" s="88"/>
+      <c r="F53" s="72"/>
+      <c r="G53" s="72"/>
+      <c r="H53" s="72"/>
+      <c r="I53" s="72"/>
+      <c r="J53" s="72"/>
     </row>
     <row r="54" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="128" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="130"/>
+      <c r="A54" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="90"/>
+      <c r="C54" s="90"/>
+      <c r="D54" s="90"/>
+      <c r="E54" s="90"/>
+      <c r="F54" s="90"/>
+      <c r="G54" s="90"/>
+      <c r="H54" s="90"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="91"/>
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
     </row>
     <row r="55" spans="1:12" s="38" customFormat="1" ht="129.75" customHeight="1">
-      <c r="A55" s="48">
-        <v>1</v>
-      </c>
-      <c r="B55" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C55" s="50" t="s">
-        <v>17</v>
-      </c>
+      <c r="A55" s="48"/>
+      <c r="B55" s="49"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="51"/>
-      <c r="E55" s="127" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
+      <c r="E55" s="88"/>
+      <c r="F55" s="72"/>
+      <c r="G55" s="72"/>
+      <c r="H55" s="72"/>
+      <c r="I55" s="72"/>
+      <c r="J55" s="72"/>
     </row>
     <row r="56" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="99" t="s">
+      <c r="A56" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="101"/>
+      <c r="B56" s="122"/>
+      <c r="C56" s="122"/>
+      <c r="D56" s="122"/>
+      <c r="E56" s="122"/>
+      <c r="F56" s="122"/>
+      <c r="G56" s="122"/>
+      <c r="H56" s="122"/>
+      <c r="I56" s="122"/>
+      <c r="J56" s="123"/>
     </row>
     <row r="57" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="98"/>
-      <c r="D57" s="89" t="s">
+      <c r="C57" s="120"/>
+      <c r="D57" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="70"/>
+      <c r="E57" s="73"/>
+      <c r="F57" s="73"/>
+      <c r="G57" s="73"/>
+      <c r="H57" s="73"/>
+      <c r="I57" s="73"/>
+      <c r="J57" s="74"/>
     </row>
     <row r="58" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="116"/>
+      <c r="A58" s="106"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="107"/>
+      <c r="D58" s="107"/>
+      <c r="E58" s="107"/>
+      <c r="F58" s="107"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
+      <c r="J58" s="108"/>
     </row>
     <row r="59" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="52"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="70"/>
+      <c r="B59" s="109"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="73"/>
+      <c r="F59" s="73"/>
+      <c r="G59" s="73"/>
+      <c r="H59" s="73"/>
+      <c r="I59" s="73"/>
+      <c r="J59" s="74"/>
     </row>
     <row r="60" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="52"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="70"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="110"/>
+      <c r="D60" s="111"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="73"/>
+      <c r="H60" s="73"/>
+      <c r="I60" s="73"/>
+      <c r="J60" s="74"/>
     </row>
     <row r="61" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="114"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="116"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="107"/>
+      <c r="D61" s="107"/>
+      <c r="E61" s="107"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="107"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="108"/>
     </row>
     <row r="62" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="52"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="70"/>
+      <c r="B62" s="109"/>
+      <c r="C62" s="110"/>
+      <c r="D62" s="111"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="73"/>
+      <c r="G62" s="73"/>
+      <c r="H62" s="73"/>
+      <c r="I62" s="73"/>
+      <c r="J62" s="74"/>
     </row>
     <row r="63" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="53" t="s">
@@ -6255,14 +6283,14 @@
       <c r="B64" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="117"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="70"/>
+      <c r="C64" s="109"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="73"/>
+      <c r="G64" s="73"/>
+      <c r="H64" s="73"/>
+      <c r="I64" s="73"/>
+      <c r="J64" s="74"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="52">
@@ -6271,37 +6299,17 @@
       <c r="B65" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -6318,6 +6326,26 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -6367,9 +6395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -6398,8 +6424,8 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="67" t="s">
-        <v>54</v>
+      <c r="K1" s="66" t="s">
+        <v>52</v>
       </c>
       <c r="L1" s="13"/>
       <c r="M1" s="13"/>
@@ -6425,7 +6451,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="68"/>
+      <c r="K2" s="67"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6443,7 +6469,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="68"/>
+      <c r="K3" s="67"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6487,18 +6513,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="133" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="A6" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6517,22 +6543,22 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6565,46 +6591,46 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="133" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="A10" s="132" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -6614,213 +6640,219 @@
       <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="136" t="s">
-        <v>85</v>
+      <c r="B12" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="G12" s="140" t="s">
-        <v>103</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J12" s="63" t="s">
-        <v>71</v>
+        <v>104</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="22">
         <v>2</v>
       </c>
-      <c r="B13" s="137" t="s">
-        <v>86</v>
+      <c r="B13" s="19" t="s">
+        <v>78</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="G13" s="140" t="s">
-        <v>104</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="22">
         <v>3</v>
       </c>
-      <c r="B14" s="136" t="s">
-        <v>87</v>
+      <c r="B14" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="140" t="s">
-        <v>105</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="J14" s="19"/>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" s="22">
         <v>4</v>
       </c>
-      <c r="B15" s="137" t="s">
-        <v>88</v>
+      <c r="B15" s="19" t="s">
+        <v>80</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>97</v>
-      </c>
-      <c r="G15" s="140" t="s">
-        <v>106</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J15" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="22">
         <v>5</v>
       </c>
-      <c r="B16" s="137" t="s">
-        <v>89</v>
+      <c r="B16" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="139" t="s">
-        <v>98</v>
-      </c>
-      <c r="G16" s="140" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J16" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="22">
         <v>6</v>
       </c>
-      <c r="B17" s="137" t="s">
-        <v>90</v>
+      <c r="B17" s="19" t="s">
+        <v>82</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="139" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="140" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="19"/>
+      <c r="I17" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="63"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="22">
         <v>7</v>
       </c>
-      <c r="B18" s="137" t="s">
-        <v>91</v>
+      <c r="B18" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="139" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="140" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="H18" s="19"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="20"/>
+      <c r="I18" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="22">
         <v>8</v>
       </c>
-      <c r="B19" s="137" t="s">
-        <v>92</v>
+      <c r="B19" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="141" t="s">
-        <v>70</v>
+        <v>102</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>66</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="J19" s="20"/>
+        <v>106</v>
+      </c>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="22">
         <v>9</v>
       </c>
-      <c r="B20" s="137" t="s">
-        <v>93</v>
+      <c r="B20" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="G20" s="140" t="s">
-        <v>104</v>
+      <c r="F20" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>95</v>
       </c>
       <c r="H20" s="19"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/APF/RA006/RA006_APF0506_功能執行細項紀錄.xlsx
+++ b/APF/RA006/RA006_APF0506_功能執行細項紀錄.xlsx
@@ -1191,6 +1191,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,6 +1206,51 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1212,57 +1260,126 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,127 +1397,10 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2449,9 +2449,9 @@
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>11</xdr:col>
-          <xdr:colOff>676275</xdr:colOff>
-          <xdr:row>24</xdr:row>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>34</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2497,13 +2497,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>25</xdr:row>
+          <xdr:row>35</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>45</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -4625,12 +4625,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
@@ -4673,59 +4673,59 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>100</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>108</v>
       </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="64" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="65"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="6" t="s">
         <v>109</v>
       </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="64" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="65"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="65"/>
+      <c r="A9" s="66"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -4805,7 +4805,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="67" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="13"/>
@@ -4828,7 +4828,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="67"/>
+      <c r="E2" s="68"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -4842,7 +4842,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="67"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5033,10 +5033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5049,15 +5049,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="67" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="67"/>
+      <c r="M2" s="68"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="67"/>
+      <c r="M3" s="68"/>
     </row>
     <row r="4" spans="1:13" s="61" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="62"/>
@@ -5074,214 +5074,219 @@
       <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="85"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="83"/>
     </row>
     <row r="6" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="70"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
     </row>
     <row r="7" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="83" t="s">
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="77"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="76"/>
     </row>
     <row r="8" spans="1:13" s="40" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="71" t="s">
+      <c r="A8" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="74"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="83" t="s">
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="77"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="75"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="76"/>
     </row>
     <row r="10" spans="1:13" s="40" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="73" t="s">
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="73"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="74"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="79" t="s">
+      <c r="A11" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="75" t="s">
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="76"/>
-      <c r="H11" s="76"/>
-      <c r="I11" s="76"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="77"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" spans="1:13" s="40" customFormat="1">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="77" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="72"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="74"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="69"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="A13" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="75" t="s">
+      <c r="B13" s="73"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="77"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="76"/>
     </row>
     <row r="14" spans="1:13" s="40" customFormat="1">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="77" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="72"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="74"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="74"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="78" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="74"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A35:L35"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5295,11 +5300,6 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -5325,7 +5325,7 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>24</xdr:row>
+                <xdr:row>34</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -5344,13 +5344,13 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>25</xdr:row>
+                <xdr:row>35</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>45</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
             </anchor>
@@ -5376,15 +5376,15 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="86" t="s">
+      <c r="P1" s="87" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="87"/>
+      <c r="P2" s="88"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="87"/>
+      <c r="P3" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5464,7 +5464,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="67" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="36"/>
@@ -5485,7 +5485,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="68"/>
     </row>
     <row r="3" spans="1:17" s="37" customFormat="1">
       <c r="A3" s="21"/>
@@ -5498,7 +5498,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="67"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:17" s="37" customFormat="1">
       <c r="A4" s="21"/>
@@ -5513,94 +5513,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="37" customFormat="1">
-      <c r="A5" s="118" t="s">
+      <c r="A5" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="70"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="86"/>
     </row>
     <row r="7" spans="1:17" s="38" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="124"/>
-      <c r="B7" s="125"/>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="126"/>
-      <c r="J7" s="127"/>
+      <c r="A7" s="102"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="103"/>
+      <c r="D7" s="103"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="103"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="105"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1">
-      <c r="A8" s="124"/>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="127"/>
+      <c r="A8" s="102"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="128"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="130"/>
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107"/>
+      <c r="G9" s="107"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
     </row>
     <row r="10" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="118" t="s">
+      <c r="A10" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="77"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
     </row>
     <row r="11" spans="1:17" s="40" customFormat="1">
-      <c r="A11" s="131"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="74"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
     </row>
     <row r="12" spans="1:17" s="40" customFormat="1">
       <c r="A12" s="58"/>
@@ -5915,114 +5915,114 @@
       <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="118" t="s">
+      <c r="A38" s="96" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="76" t="s">
+      <c r="B38" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="77"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="76"/>
     </row>
     <row r="39" spans="1:10" s="40" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="131"/>
-      <c r="B39" s="73"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
-      <c r="E39" s="73"/>
-      <c r="F39" s="73"/>
-      <c r="G39" s="73"/>
-      <c r="H39" s="73"/>
-      <c r="I39" s="73"/>
-      <c r="J39" s="74"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70"/>
     </row>
     <row r="40" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="118" t="s">
+      <c r="A40" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="76"/>
-      <c r="E40" s="76"/>
-      <c r="F40" s="76"/>
-      <c r="G40" s="76"/>
-      <c r="H40" s="76"/>
-      <c r="I40" s="76"/>
-      <c r="J40" s="77"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
+      <c r="G40" s="75"/>
+      <c r="H40" s="75"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="76"/>
     </row>
     <row r="41" spans="1:10" s="40" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="131" t="s">
+      <c r="A41" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="73"/>
-      <c r="F41" s="73"/>
-      <c r="G41" s="73"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="73"/>
-      <c r="J41" s="74"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="70"/>
     </row>
     <row r="42" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="118" t="s">
+      <c r="A42" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="77"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="75"/>
+      <c r="E42" s="75"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="75"/>
+      <c r="H42" s="75"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="76"/>
     </row>
     <row r="43" spans="1:10" s="38" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="97" t="s">
+      <c r="A43" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
-      <c r="F43" s="98"/>
-      <c r="G43" s="98"/>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="99"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="120"/>
+      <c r="J43" s="121"/>
     </row>
     <row r="44" spans="1:10" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="95"/>
-      <c r="H44" s="95"/>
-      <c r="I44" s="95"/>
-      <c r="J44" s="96"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="112"/>
     </row>
     <row r="45" spans="1:10" s="38" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="112"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="114"/>
+      <c r="A45" s="90"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="91"/>
+      <c r="D45" s="91"/>
+      <c r="E45" s="91"/>
+      <c r="F45" s="91"/>
+      <c r="G45" s="91"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
+      <c r="J45" s="92"/>
     </row>
     <row r="46" spans="1:10" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="48" t="s">
@@ -6031,78 +6031,78 @@
       <c r="B46" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="116"/>
-      <c r="E46" s="116"/>
-      <c r="F46" s="116"/>
-      <c r="G46" s="116"/>
-      <c r="H46" s="116"/>
-      <c r="I46" s="116"/>
-      <c r="J46" s="117"/>
+      <c r="D46" s="94"/>
+      <c r="E46" s="94"/>
+      <c r="F46" s="94"/>
+      <c r="G46" s="94"/>
+      <c r="H46" s="94"/>
+      <c r="I46" s="94"/>
+      <c r="J46" s="95"/>
     </row>
     <row r="47" spans="1:10" s="38" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="102"/>
+      <c r="C47" s="122"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="124"/>
     </row>
     <row r="48" spans="1:10" s="38" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="102"/>
+      <c r="C48" s="122"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
+      <c r="F48" s="123"/>
+      <c r="G48" s="123"/>
+      <c r="H48" s="123"/>
+      <c r="I48" s="123"/>
+      <c r="J48" s="124"/>
     </row>
     <row r="49" spans="1:12" s="38" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="102"/>
+      <c r="C49" s="122"/>
+      <c r="D49" s="123"/>
+      <c r="E49" s="123"/>
+      <c r="F49" s="123"/>
+      <c r="G49" s="123"/>
+      <c r="H49" s="123"/>
+      <c r="I49" s="123"/>
+      <c r="J49" s="124"/>
     </row>
     <row r="50" spans="1:12" s="38" customFormat="1">
-      <c r="A50" s="97"/>
-      <c r="B50" s="103"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
-      <c r="E50" s="103"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="103"/>
-      <c r="H50" s="103"/>
-      <c r="I50" s="103"/>
-      <c r="J50" s="104"/>
+      <c r="A50" s="119"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="126"/>
     </row>
     <row r="51" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="94" t="s">
+      <c r="A51" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="95"/>
-      <c r="C51" s="95"/>
-      <c r="D51" s="95"/>
-      <c r="E51" s="95"/>
-      <c r="F51" s="95"/>
-      <c r="G51" s="95"/>
-      <c r="H51" s="95"/>
-      <c r="I51" s="95"/>
-      <c r="J51" s="96"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="112"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="41" t="s">
@@ -6117,14 +6117,14 @@
       <c r="D52" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="92" t="s">
+      <c r="E52" s="131" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="132"/>
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
     </row>
@@ -6135,26 +6135,26 @@
       <c r="B53" s="45"/>
       <c r="C53" s="46"/>
       <c r="D53" s="47"/>
-      <c r="E53" s="88"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="72"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="72"/>
-      <c r="J53" s="72"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="78"/>
+      <c r="H53" s="78"/>
+      <c r="I53" s="78"/>
+      <c r="J53" s="78"/>
     </row>
     <row r="54" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="89" t="s">
+      <c r="A54" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="90"/>
-      <c r="J54" s="91"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="130"/>
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
     </row>
@@ -6163,104 +6163,104 @@
       <c r="B55" s="49"/>
       <c r="C55" s="50"/>
       <c r="D55" s="51"/>
-      <c r="E55" s="88"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="72"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="72"/>
-      <c r="J55" s="72"/>
+      <c r="E55" s="127"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="78"/>
+      <c r="H55" s="78"/>
+      <c r="I55" s="78"/>
+      <c r="J55" s="78"/>
     </row>
     <row r="56" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="121" t="s">
+      <c r="A56" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="122"/>
-      <c r="C56" s="122"/>
-      <c r="D56" s="122"/>
-      <c r="E56" s="122"/>
-      <c r="F56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="122"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="123"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="101"/>
     </row>
     <row r="57" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="119" t="s">
+      <c r="B57" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="120"/>
-      <c r="D57" s="111" t="s">
+      <c r="C57" s="98"/>
+      <c r="D57" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="73"/>
-      <c r="F57" s="73"/>
-      <c r="G57" s="73"/>
-      <c r="H57" s="73"/>
-      <c r="I57" s="73"/>
-      <c r="J57" s="74"/>
+      <c r="E57" s="69"/>
+      <c r="F57" s="69"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+      <c r="J57" s="70"/>
     </row>
     <row r="58" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="106"/>
-      <c r="B58" s="107"/>
-      <c r="C58" s="107"/>
-      <c r="D58" s="107"/>
-      <c r="E58" s="107"/>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
-      <c r="J58" s="108"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="115"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="115"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="115"/>
+      <c r="G58" s="115"/>
+      <c r="H58" s="115"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="116"/>
     </row>
     <row r="59" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="52"/>
-      <c r="B59" s="109"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="73"/>
-      <c r="G59" s="73"/>
-      <c r="H59" s="73"/>
-      <c r="I59" s="73"/>
-      <c r="J59" s="74"/>
+      <c r="B59" s="117"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="69"/>
+      <c r="F59" s="69"/>
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+      <c r="J59" s="70"/>
     </row>
     <row r="60" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="52"/>
-      <c r="B60" s="109"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="111"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="73"/>
-      <c r="G60" s="73"/>
-      <c r="H60" s="73"/>
-      <c r="I60" s="73"/>
-      <c r="J60" s="74"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="118"/>
+      <c r="D60" s="89"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="69"/>
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+      <c r="J60" s="70"/>
     </row>
     <row r="61" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="106"/>
-      <c r="B61" s="107"/>
-      <c r="C61" s="107"/>
-      <c r="D61" s="107"/>
-      <c r="E61" s="107"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="107"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="108"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="115"/>
+      <c r="C61" s="115"/>
+      <c r="D61" s="115"/>
+      <c r="E61" s="115"/>
+      <c r="F61" s="115"/>
+      <c r="G61" s="115"/>
+      <c r="H61" s="115"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="116"/>
     </row>
     <row r="62" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="52"/>
-      <c r="B62" s="109"/>
-      <c r="C62" s="110"/>
-      <c r="D62" s="111"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="73"/>
-      <c r="H62" s="73"/>
-      <c r="I62" s="73"/>
-      <c r="J62" s="74"/>
+      <c r="B62" s="117"/>
+      <c r="C62" s="118"/>
+      <c r="D62" s="89"/>
+      <c r="E62" s="69"/>
+      <c r="F62" s="69"/>
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+      <c r="J62" s="70"/>
     </row>
     <row r="63" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="53" t="s">
@@ -6283,14 +6283,14 @@
       <c r="B64" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="109"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="73"/>
-      <c r="G64" s="73"/>
-      <c r="H64" s="73"/>
-      <c r="I64" s="73"/>
-      <c r="J64" s="74"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="70"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="52">
@@ -6299,17 +6299,37 @@
       <c r="B65" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
+      <c r="C65" s="113"/>
+      <c r="D65" s="113"/>
+      <c r="E65" s="113"/>
+      <c r="F65" s="113"/>
+      <c r="G65" s="113"/>
+      <c r="H65" s="113"/>
+      <c r="I65" s="113"/>
+      <c r="J65" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -6326,26 +6346,6 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -6424,7 +6424,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="67" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="13"/>
@@ -6451,7 +6451,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="68"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6469,7 +6469,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="67"/>
+      <c r="K3" s="68"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6513,18 +6513,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="132" t="s">
+      <c r="A6" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="133"/>
-      <c r="C6" s="133"/>
-      <c r="D6" s="133"/>
-      <c r="E6" s="133"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="133"/>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="135"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6591,18 +6591,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="133" t="s">
         <v>76</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="133"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="133"/>
-      <c r="J10" s="134"/>
+      <c r="B10" s="134"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">

--- a/APF/RA006/RA006_APF0506_功能執行細項紀錄.xlsx
+++ b/APF/RA006/RA006_APF0506_功能執行細項紀錄.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="588" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7860" tabRatio="588" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="33" r:id="rId1"/>
     <sheet name="版本控管" sheetId="16" r:id="rId2"/>
     <sheet name="功能簡述" sheetId="32" r:id="rId3"/>
-    <sheet name="IPO" sheetId="34" r:id="rId4"/>
+    <sheet name="IPO" sheetId="35" r:id="rId4"/>
     <sheet name="畫面_APF0506_ActionLog" sheetId="7" r:id="rId5"/>
     <sheet name="欄位_APF0506_ActionLog" sheetId="14" r:id="rId6"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="116">
   <si>
     <t>備註</t>
     <rPh sb="0" eb="1">
@@ -316,10 +316,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>回總表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>UI控制項型態及長度</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -461,15 +457,66 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(50)</t>
+    <t>紀錄各使用者於APF模組中各項執行功能輸入的條件與設定的資訊</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>功能執行細項紀錄</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(10)</t>
+    <t>View</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>apf_action_log</t>
+  </si>
+  <si>
+    <t>create_date</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>nvarchar(20)</t>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面_APF0506_ActionLog</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>欄位_APF0506_ActionLog</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK、流水號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>等於第一筆識別值</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -477,30 +524,17 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>紀錄各使用者於APF模組中各項執行功能輸入的條件與設定的資訊</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>功能執行細項紀錄</t>
+    <t>nvarchar(100)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>View</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>apf_action_log</t>
-  </si>
-  <si>
-    <t>create_date</t>
+    <t>包含以下兩種：CRUDO都記
+0.UI = Html Tag
+1.ActionData = Data</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PK、流水號</t>
+    <t>char(1)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -508,15 +542,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>I</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>畫面_APF0506_ActionLog</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>欄位_APF0506_ActionLog</t>
+    <t>回總表</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1012,7 +1038,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
@@ -1194,6 +1220,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="21" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,12 +1235,36 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1221,21 +1274,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1251,21 +1289,81 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1328,75 +1426,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2451,7 +2480,7 @@
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>34</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -2497,14 +2526,14 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>19050</xdr:colOff>
-          <xdr:row>35</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>12</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>133350</xdr:rowOff>
+          <xdr:row>42</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2548,58 +2577,6 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>15</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>45</xdr:row>
-          <xdr:rowOff>95250</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="7169" name="Object 1" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s7169"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2615,7 +2592,7 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="3" name="群組 2"/>
+        <xdr:cNvPr id="2" name="群組 1"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2630,7 +2607,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Rectangle 25"/>
+          <xdr:cNvPr id="3" name="Rectangle 25"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2703,7 +2680,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Rectangle 26"/>
+          <xdr:cNvPr id="4" name="Rectangle 26"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2784,7 +2761,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Rectangle 27"/>
+          <xdr:cNvPr id="5" name="Rectangle 27"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2832,24 +2809,20 @@
               <a:defRPr sz="1000"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="Times New Roman"/>
-              </a:rPr>
-              <a:t>APF0503 </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-TW" altLang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:ea typeface="標楷體" pitchFamily="65" charset="-120"/>
-                <a:cs typeface="Times New Roman"/>
+              <a:rPr lang="en-US" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
+              </a:rPr>
+              <a:t>APF0506 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-TW" altLang="zh-TW" sz="1200" b="0" i="0" baseline="0">
+                <a:effectLst/>
+                <a:latin typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:ea typeface="標楷體" panose="03000509000000000000" pitchFamily="65" charset="-120"/>
+                <a:cs typeface="Aharoni" panose="02010803020104030203" pitchFamily="2" charset="-79"/>
               </a:rPr>
               <a:t>功能執行細項紀錄</a:t>
             </a:r>
@@ -2876,7 +2849,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Rectangle 28"/>
+          <xdr:cNvPr id="6" name="Rectangle 28"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2948,7 +2921,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Rectangle 29"/>
+          <xdr:cNvPr id="7" name="Rectangle 29"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3022,7 +2995,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Rectangle 30"/>
+          <xdr:cNvPr id="8" name="Rectangle 30"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3098,7 +3071,7 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Line 31"/>
+          <xdr:cNvPr id="9" name="Line 31"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -3132,6 +3105,58 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>28575</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>666750</xdr:colOff>
+          <xdr:row>45</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10241" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s10241"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -4625,12 +4650,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="45" customHeight="1" thickBot="1">
-      <c r="A1" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" thickTop="1">
       <c r="A2" s="2" t="s">
@@ -4648,13 +4673,13 @@
     </row>
     <row r="3" spans="1:4" ht="21" customHeight="1">
       <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>49</v>
@@ -4662,10 +4687,10 @@
     </row>
     <row r="4" spans="1:4" ht="21" customHeight="1">
       <c r="A4" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
@@ -4673,59 +4698,59 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1">
-      <c r="A5" s="66" t="s">
-        <v>100</v>
+      <c r="A5" s="67" t="s">
+        <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21" customHeight="1">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="21" customHeight="1">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="21" customHeight="1">
-      <c r="A9" s="66"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="21" customHeight="1">
-      <c r="A10" s="66"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="21" customHeight="1">
-      <c r="A11" s="66"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="21" customHeight="1">
-      <c r="A12" s="66"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
@@ -4805,7 +4830,7 @@
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="68" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="13"/>
@@ -4828,7 +4853,7 @@
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
-      <c r="E2" s="68"/>
+      <c r="E2" s="69"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -4842,7 +4867,7 @@
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
-      <c r="E3" s="68"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5033,10 +5058,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N29" sqref="N29"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5049,15 +5074,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17.25" thickTop="1">
-      <c r="M1" s="67" t="s">
+      <c r="M1" s="68" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="M2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="M3" s="68"/>
+      <c r="M3" s="69"/>
     </row>
     <row r="4" spans="1:13" s="61" customFormat="1" ht="6.75" customHeight="1">
       <c r="A4" s="62"/>
@@ -5074,219 +5099,214 @@
       <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="83"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="87"/>
     </row>
     <row r="6" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="70" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
+    </row>
+    <row r="7" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="79"/>
+    </row>
+    <row r="8" spans="1:13" s="40" customFormat="1" ht="35.1" customHeight="1">
+      <c r="A8" s="73" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="75"/>
+      <c r="L8" s="76"/>
+    </row>
+    <row r="9" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="79"/>
+    </row>
+    <row r="10" spans="1:13" s="40" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A10" s="73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="75"/>
+      <c r="K10" s="75"/>
+      <c r="L10" s="76"/>
+    </row>
+    <row r="11" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="77" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
+    </row>
+    <row r="12" spans="1:13" s="40" customFormat="1">
+      <c r="A12" s="73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="76"/>
+    </row>
+    <row r="13" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
-    </row>
-    <row r="7" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="81" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="76"/>
-    </row>
-    <row r="8" spans="1:13" s="40" customFormat="1" ht="35.1" customHeight="1">
-      <c r="A8" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="70"/>
-    </row>
-    <row r="9" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="76"/>
-    </row>
-    <row r="10" spans="1:13" s="40" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A10" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="69" t="s">
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="79"/>
+    </row>
+    <row r="14" spans="1:13" s="40" customFormat="1">
+      <c r="A14" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="70"/>
-    </row>
-    <row r="11" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="72" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="76"/>
-    </row>
-    <row r="12" spans="1:13" s="40" customFormat="1">
-      <c r="A12" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="70"/>
-    </row>
-    <row r="13" spans="1:13" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="72" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="74" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="76"/>
-    </row>
-    <row r="14" spans="1:13" s="40" customFormat="1">
-      <c r="A14" s="77" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="70"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="75"/>
+      <c r="L14" s="76"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="71" t="s">
+      <c r="A15" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="70"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="71" t="s">
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+      <c r="K15" s="75"/>
+      <c r="L15" s="76"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="80" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="69"/>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69"/>
-      <c r="K35" s="69"/>
-      <c r="L35" s="70"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="A12:E12"/>
     <mergeCell ref="M1:M3"/>
     <mergeCell ref="F12:L12"/>
-    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A32:L32"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="F13:L13"/>
     <mergeCell ref="A14:E14"/>
@@ -5300,6 +5320,11 @@
     <mergeCell ref="F7:L7"/>
     <mergeCell ref="F8:L8"/>
     <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A6:L6"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="A12:E12"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -5325,7 +5350,7 @@
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>34</xdr:row>
+                <xdr:row>31</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </to>
             </anchor>
@@ -5344,14 +5369,14 @@
               <from>
                 <xdr:col>0</xdr:col>
                 <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>35</xdr:row>
+                <xdr:row>32</xdr:row>
                 <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>12</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>45</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:row>42</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -5369,22 +5394,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P1:P3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="16:16" ht="14.25" thickTop="1">
-      <c r="P1" s="87" t="s">
-        <v>57</v>
+      <c r="P1" s="88" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="16:16">
-      <c r="P2" s="88"/>
+      <c r="P2" s="89"/>
     </row>
     <row r="3" spans="16:16">
-      <c r="P3" s="88"/>
+      <c r="P3" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5402,27 +5427,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="7169" r:id="rId4">
+        <oleObject progId="Visio.Drawing.11" shapeId="10241" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
+                <xdr:colOff>28575</xdr:colOff>
                 <xdr:row>5</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>657225</xdr:colOff>
                 <xdr:row>45</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>66675</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="7169" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.11" shapeId="10241" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -5434,7 +5459,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K3"/>
     </sheetView>
   </sheetViews>
@@ -5464,7 +5489,7 @@
       <c r="H1" s="21"/>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="36"/>
@@ -5485,7 +5510,7 @@
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
       <c r="J2" s="21"/>
-      <c r="K2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:17" s="37" customFormat="1">
       <c r="A3" s="21"/>
@@ -5498,7 +5523,7 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
       <c r="J3" s="21"/>
-      <c r="K3" s="68"/>
+      <c r="K3" s="69"/>
     </row>
     <row r="4" spans="1:17" s="37" customFormat="1">
       <c r="A4" s="21"/>
@@ -5513,94 +5538,94 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:17" s="37" customFormat="1">
-      <c r="A5" s="96" t="s">
+      <c r="A5" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A6" s="84"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="86"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
     </row>
     <row r="7" spans="1:17" s="38" customFormat="1" ht="144" customHeight="1">
-      <c r="A7" s="102"/>
-      <c r="B7" s="103"/>
-      <c r="C7" s="103"/>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
-      <c r="I7" s="104"/>
-      <c r="J7" s="105"/>
+      <c r="A7" s="126"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="129"/>
       <c r="K7" s="39"/>
     </row>
     <row r="8" spans="1:17" s="38" customFormat="1">
-      <c r="A8" s="102"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
+      <c r="A8" s="126"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="129"/>
       <c r="K8" s="39"/>
     </row>
     <row r="9" spans="1:17" s="38" customFormat="1" ht="153" customHeight="1">
-      <c r="A9" s="106"/>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="108"/>
+      <c r="A9" s="130"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="131"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:17" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="96" t="s">
+      <c r="A10" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="78"/>
+      <c r="I10" s="78"/>
+      <c r="J10" s="79"/>
     </row>
     <row r="11" spans="1:17" s="40" customFormat="1">
-      <c r="A11" s="109"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="70"/>
+      <c r="A11" s="133"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
     </row>
     <row r="12" spans="1:17" s="40" customFormat="1">
       <c r="A12" s="58"/>
@@ -5915,114 +5940,114 @@
       <c r="J37" s="60"/>
     </row>
     <row r="38" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="120" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="75" t="s">
+      <c r="B38" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="76"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="78"/>
+      <c r="H38" s="78"/>
+      <c r="I38" s="78"/>
+      <c r="J38" s="79"/>
     </row>
     <row r="39" spans="1:10" s="40" customFormat="1" ht="171" customHeight="1">
-      <c r="A39" s="109"/>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70"/>
+      <c r="A39" s="133"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
+      <c r="F39" s="75"/>
+      <c r="G39" s="75"/>
+      <c r="H39" s="75"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="76"/>
     </row>
     <row r="40" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A40" s="96" t="s">
+      <c r="A40" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="76"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="78"/>
+      <c r="I40" s="78"/>
+      <c r="J40" s="79"/>
     </row>
     <row r="41" spans="1:10" s="40" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A41" s="109" t="s">
+      <c r="A41" s="133" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="69"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="70"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="75"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="76"/>
     </row>
     <row r="42" spans="1:10" s="38" customFormat="1" ht="15" customHeight="1">
-      <c r="A42" s="96" t="s">
+      <c r="A42" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="75"/>
-      <c r="E42" s="75"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="75"/>
-      <c r="J42" s="76"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
+      <c r="J42" s="79"/>
     </row>
     <row r="43" spans="1:10" s="38" customFormat="1" ht="59.25" customHeight="1">
-      <c r="A43" s="119" t="s">
+      <c r="A43" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="120"/>
-      <c r="J43" s="121"/>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="101"/>
     </row>
     <row r="44" spans="1:10" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A44" s="110" t="s">
+      <c r="A44" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="112"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="98"/>
     </row>
     <row r="45" spans="1:10" s="38" customFormat="1" ht="33.75" customHeight="1">
-      <c r="A45" s="90"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="92"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="115"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
+      <c r="H45" s="115"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="116"/>
     </row>
     <row r="46" spans="1:10" s="38" customFormat="1" ht="13.5" customHeight="1">
       <c r="A46" s="48" t="s">
@@ -6031,78 +6056,78 @@
       <c r="B46" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="93" t="s">
+      <c r="C46" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="95"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="119"/>
     </row>
     <row r="47" spans="1:10" s="38" customFormat="1" ht="36" customHeight="1">
       <c r="A47" s="48"/>
       <c r="B47" s="48"/>
-      <c r="C47" s="122"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="123"/>
-      <c r="J47" s="124"/>
+      <c r="C47" s="102"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="104"/>
     </row>
     <row r="48" spans="1:10" s="38" customFormat="1" ht="60.75" customHeight="1">
       <c r="A48" s="48"/>
       <c r="B48" s="48"/>
-      <c r="C48" s="122"/>
-      <c r="D48" s="123"/>
-      <c r="E48" s="123"/>
-      <c r="F48" s="123"/>
-      <c r="G48" s="123"/>
-      <c r="H48" s="123"/>
-      <c r="I48" s="123"/>
-      <c r="J48" s="124"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="103"/>
+      <c r="F48" s="103"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="103"/>
+      <c r="I48" s="103"/>
+      <c r="J48" s="104"/>
     </row>
     <row r="49" spans="1:12" s="38" customFormat="1" ht="71.25" customHeight="1">
       <c r="A49" s="48"/>
       <c r="B49" s="48"/>
-      <c r="C49" s="122"/>
-      <c r="D49" s="123"/>
-      <c r="E49" s="123"/>
-      <c r="F49" s="123"/>
-      <c r="G49" s="123"/>
-      <c r="H49" s="123"/>
-      <c r="I49" s="123"/>
-      <c r="J49" s="124"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="103"/>
+      <c r="F49" s="103"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="103"/>
+      <c r="I49" s="103"/>
+      <c r="J49" s="104"/>
     </row>
     <row r="50" spans="1:12" s="38" customFormat="1">
-      <c r="A50" s="119"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="126"/>
+      <c r="A50" s="99"/>
+      <c r="B50" s="105"/>
+      <c r="C50" s="105"/>
+      <c r="D50" s="105"/>
+      <c r="E50" s="105"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+      <c r="J50" s="106"/>
     </row>
     <row r="51" spans="1:12" s="38" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="96" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="112"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="98"/>
     </row>
     <row r="52" spans="1:12" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="41" t="s">
@@ -6117,14 +6142,14 @@
       <c r="D52" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="131" t="s">
+      <c r="E52" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
       <c r="K52" s="38"/>
       <c r="L52" s="38"/>
     </row>
@@ -6135,26 +6160,26 @@
       <c r="B53" s="45"/>
       <c r="C53" s="46"/>
       <c r="D53" s="47"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="78"/>
-      <c r="H53" s="78"/>
-      <c r="I53" s="78"/>
-      <c r="J53" s="78"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="74"/>
+      <c r="J53" s="74"/>
     </row>
     <row r="54" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A54" s="128" t="s">
+      <c r="A54" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="130"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="93"/>
       <c r="K54" s="38"/>
       <c r="L54" s="38"/>
     </row>
@@ -6163,104 +6188,104 @@
       <c r="B55" s="49"/>
       <c r="C55" s="50"/>
       <c r="D55" s="51"/>
-      <c r="E55" s="127"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="78"/>
-      <c r="H55" s="78"/>
-      <c r="I55" s="78"/>
-      <c r="J55" s="78"/>
+      <c r="E55" s="90"/>
+      <c r="F55" s="74"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="74"/>
+      <c r="I55" s="74"/>
+      <c r="J55" s="74"/>
     </row>
     <row r="56" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
-      <c r="A56" s="99" t="s">
+      <c r="A56" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="101"/>
+      <c r="B56" s="124"/>
+      <c r="C56" s="124"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="125"/>
     </row>
     <row r="57" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="B57" s="97" t="s">
+      <c r="B57" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="98"/>
-      <c r="D57" s="89" t="s">
+      <c r="C57" s="122"/>
+      <c r="D57" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="69"/>
-      <c r="F57" s="69"/>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-      <c r="J57" s="70"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
+      <c r="J57" s="76"/>
     </row>
     <row r="58" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A58" s="114"/>
-      <c r="B58" s="115"/>
-      <c r="C58" s="115"/>
-      <c r="D58" s="115"/>
-      <c r="E58" s="115"/>
-      <c r="F58" s="115"/>
-      <c r="G58" s="115"/>
-      <c r="H58" s="115"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="116"/>
+      <c r="A58" s="108"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="110"/>
     </row>
     <row r="59" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A59" s="52"/>
-      <c r="B59" s="117"/>
-      <c r="C59" s="118"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="70"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="112"/>
+      <c r="D59" s="113"/>
+      <c r="E59" s="75"/>
+      <c r="F59" s="75"/>
+      <c r="G59" s="75"/>
+      <c r="H59" s="75"/>
+      <c r="I59" s="75"/>
+      <c r="J59" s="76"/>
     </row>
     <row r="60" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="52"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="118"/>
-      <c r="D60" s="89"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="69"/>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="70"/>
+      <c r="B60" s="111"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="75"/>
+      <c r="F60" s="75"/>
+      <c r="G60" s="75"/>
+      <c r="H60" s="75"/>
+      <c r="I60" s="75"/>
+      <c r="J60" s="76"/>
     </row>
     <row r="61" spans="1:12" s="40" customFormat="1" ht="15" customHeight="1">
-      <c r="A61" s="114"/>
-      <c r="B61" s="115"/>
-      <c r="C61" s="115"/>
-      <c r="D61" s="115"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="115"/>
-      <c r="G61" s="115"/>
-      <c r="H61" s="115"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="116"/>
+      <c r="A61" s="108"/>
+      <c r="B61" s="109"/>
+      <c r="C61" s="109"/>
+      <c r="D61" s="109"/>
+      <c r="E61" s="109"/>
+      <c r="F61" s="109"/>
+      <c r="G61" s="109"/>
+      <c r="H61" s="109"/>
+      <c r="I61" s="109"/>
+      <c r="J61" s="110"/>
     </row>
     <row r="62" spans="1:12" s="38" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="52"/>
-      <c r="B62" s="117"/>
-      <c r="C62" s="118"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-      <c r="J62" s="70"/>
+      <c r="B62" s="111"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="75"/>
+      <c r="F62" s="75"/>
+      <c r="G62" s="75"/>
+      <c r="H62" s="75"/>
+      <c r="I62" s="75"/>
+      <c r="J62" s="76"/>
     </row>
     <row r="63" spans="1:12" s="38" customFormat="1" ht="17.25" customHeight="1">
       <c r="A63" s="53" t="s">
@@ -6283,14 +6308,14 @@
       <c r="B64" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="117"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="69"/>
-      <c r="F64" s="69"/>
-      <c r="G64" s="69"/>
-      <c r="H64" s="69"/>
-      <c r="I64" s="69"/>
-      <c r="J64" s="70"/>
+      <c r="C64" s="111"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
+      <c r="F64" s="75"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="75"/>
+      <c r="I64" s="75"/>
+      <c r="J64" s="76"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="52">
@@ -6299,37 +6324,17 @@
       <c r="B65" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="113"/>
-      <c r="F65" s="113"/>
-      <c r="G65" s="113"/>
-      <c r="H65" s="113"/>
-      <c r="I65" s="113"/>
-      <c r="J65" s="113"/>
+      <c r="C65" s="107"/>
+      <c r="D65" s="107"/>
+      <c r="E65" s="107"/>
+      <c r="F65" s="107"/>
+      <c r="G65" s="107"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
+      <c r="J65" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E55:J55"/>
-    <mergeCell ref="A54:J54"/>
-    <mergeCell ref="E52:J52"/>
-    <mergeCell ref="A51:J51"/>
-    <mergeCell ref="E53:J53"/>
-    <mergeCell ref="A43:J43"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C49:J49"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="A58:J58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:J59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="D60:J60"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="A61:J61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="D62:J62"/>
     <mergeCell ref="D57:J57"/>
     <mergeCell ref="A45:J45"/>
     <mergeCell ref="C46:J46"/>
@@ -6346,6 +6351,26 @@
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="A11:J11"/>
     <mergeCell ref="A38:J38"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="A58:J58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:J59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="D60:J60"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="A61:J61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="D62:J62"/>
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C49:J49"/>
+    <mergeCell ref="E55:J55"/>
+    <mergeCell ref="A54:J54"/>
+    <mergeCell ref="E52:J52"/>
+    <mergeCell ref="A51:J51"/>
+    <mergeCell ref="E53:J53"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <hyperlinks>
@@ -6395,7 +6420,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -6424,7 +6451,7 @@
       <c r="H1" s="13"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="68" t="s">
         <v>52</v>
       </c>
       <c r="L1" s="13"/>
@@ -6451,7 +6478,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="68"/>
+      <c r="K2" s="69"/>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6469,7 +6496,7 @@
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="68"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6513,18 +6540,18 @@
       <c r="P5" s="13"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="134" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="134"/>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
+      <c r="B6" s="135"/>
+      <c r="C6" s="135"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="136"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -6543,7 +6570,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>20</v>
@@ -6558,7 +6585,7 @@
         <v>53</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J7" s="16" t="s">
         <v>0</v>
@@ -6591,18 +6618,18 @@
       <c r="J9" s="21"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="133" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="134"/>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="A10" s="134" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="135"/>
+      <c r="C10" s="135"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="136"/>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="16" t="s">
@@ -6612,10 +6639,10 @@
         <v>21</v>
       </c>
       <c r="C11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>20</v>
@@ -6630,7 +6657,7 @@
         <v>53</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J11" s="16" t="s">
         <v>0</v>
@@ -6641,25 +6668,25 @@
         <v>1</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="23"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J12" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -6667,46 +6694,48 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C13" s="23"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="J13" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" s="22">
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J14" s="19"/>
     </row>
@@ -6715,22 +6744,22 @@
         <v>4</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J15" s="19"/>
     </row>
@@ -6739,22 +6768,22 @@
         <v>5</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C16" s="23"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J16" s="19"/>
     </row>
@@ -6763,70 +6792,72 @@
         <v>6</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="23"/>
       <c r="D17" s="19"/>
       <c r="E17" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J17" s="19"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="49.5">
       <c r="A18" s="22">
         <v>7</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C18" s="23"/>
       <c r="D18" s="19"/>
       <c r="E18" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" s="19"/>
+        <v>114</v>
+      </c>
+      <c r="J18" s="65" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="22">
         <v>8</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="23"/>
       <c r="D19" s="19"/>
       <c r="E19" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J19" s="19"/>
     </row>
@@ -6835,22 +6866,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="19"/>
       <c r="E20" s="19" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="17" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J20" s="19"/>
     </row>
